--- a/ptt.xlsx
+++ b/ptt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79C4DD3-1A41-4EDC-B81D-B78491B96398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42725771-CCEB-4536-9E21-8877E27A7A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="13097" xr2:uid="{DBDDB129-8B7B-4DA8-899C-B0B9FDDAB328}"/>
   </bookViews>
@@ -183,15 +183,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,7 +214,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -548,38 +548,38 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -590,11 +590,11 @@
     </row>
     <row r="4" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -629,48 +629,48 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
@@ -687,16 +687,16 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -704,7 +704,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -730,31 +730,31 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
@@ -769,11 +769,11 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -817,16 +817,16 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="2" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
@@ -868,27 +868,29 @@
       <c r="J24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
+  <mergeCells count="22">
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A11:J11"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
